--- a/Kursov/bin/Debug/net6.0/Base.xlsx
+++ b/Kursov/bin/Debug/net6.0/Base.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>ID комикса</t>
   </si>
@@ -65,13 +65,25 @@
     <t>Страна</t>
   </si>
   <si>
+    <t>Снайдер</t>
+  </si>
+  <si>
+    <t>Азбука</t>
+  </si>
+  <si>
+    <t>Россия</t>
+  </si>
+  <si>
+    <t>Детектив</t>
+  </si>
+  <si>
+    <t>Бэтмен</t>
+  </si>
+  <si>
     <t>Микелайни</t>
   </si>
   <si>
     <t>АСТ</t>
-  </si>
-  <si>
-    <t>Россия</t>
   </si>
   <si>
     <t>Приключения</t>
@@ -108,7 +120,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="34">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -132,20 +144,6 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -549,20 +547,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28125" defaultColWidthPt="48.75" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultColWidthPt="48.75" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.57421875" widthPt="55.5" style="0" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.00390625" widthPt="89.25" style="0" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.421875" widthPt="60" style="0" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" widthPt="48" style="0" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.57421875" widthPt="34.5" style="0" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" widthPt="30" style="0" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.57421875" widthPt="71.25" style="0" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.57421875" widthPt="60.75" style="0" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.57421875" widthPt="55.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.00390625" widthPt="89.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.421875" widthPt="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" widthPt="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.57421875" widthPt="34.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" widthPt="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.57421875" widthPt="71.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.57421875" widthPt="60.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75">
@@ -605,10 +603,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -622,13 +620,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>2000</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1000</v>
@@ -637,81 +635,29 @@
         <v>20</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="12.75">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4">
-        <v>2000</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1000</v>
-      </c>
-      <c r="F4">
-        <v>20</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="12.75">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>2000</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1000</v>
-      </c>
-      <c r="F5">
-        <v>20</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28125" defaultColWidthPt="48.75" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultColWidthPt="48.75" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.8515625" widthPt="46.5" style="0" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28125" widthPt="80.25" style="0" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.8515625" widthPt="46.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28125" widthPt="80.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
@@ -730,23 +676,31 @@
         <v>18</v>
       </c>
     </row>
+    <row r="3" spans="1:2" ht="12.75">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28125" defaultColWidthPt="48.75" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultColWidthPt="48.75" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.28125" widthPt="69.75" style="0" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.421875" widthPt="102" style="0" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28125" widthPt="69.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.421875" widthPt="102" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
@@ -765,24 +719,40 @@
         <v>15</v>
       </c>
     </row>
+    <row r="3" spans="1:2" ht="12.75">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="12.75">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28125" defaultColWidthPt="48.75" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultColWidthPt="48.75" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.28125" widthPt="59.25" style="0" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" widthPt="93" style="0" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28125" widthPt="38.25" style="0" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28125" widthPt="59.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" widthPt="93" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28125" widthPt="38.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12.75">
@@ -807,9 +777,20 @@
         <v>17</v>
       </c>
     </row>
+    <row r="3" spans="1:3" ht="12.75">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Kursov/bin/Debug/net6.0/Base.xlsx
+++ b/Kursov/bin/Debug/net6.0/Base.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>ID комикса</t>
   </si>
@@ -65,25 +65,13 @@
     <t>Страна</t>
   </si>
   <si>
-    <t>Снайдер</t>
-  </si>
-  <si>
-    <t>Азбука</t>
+    <t>Микелайни</t>
+  </si>
+  <si>
+    <t>АСТ</t>
   </si>
   <si>
     <t>Россия</t>
-  </si>
-  <si>
-    <t>Детектив</t>
-  </si>
-  <si>
-    <t>Бэтмен</t>
-  </si>
-  <si>
-    <t>Микелайни</t>
-  </si>
-  <si>
-    <t>АСТ</t>
   </si>
   <si>
     <t>Приключения</t>
@@ -120,7 +108,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -144,6 +132,188 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -547,20 +717,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultColWidthPt="48.75" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.28125" defaultColWidthPt="48.75" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.57421875" widthPt="55.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.00390625" widthPt="89.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.421875" widthPt="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" widthPt="48" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.57421875" widthPt="34.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" widthPt="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.57421875" widthPt="71.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.57421875" widthPt="60.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.57421875" widthPt="55.5" style="0" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.00390625" widthPt="89.25" style="0" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.421875" widthPt="60" style="0" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" widthPt="48" style="0" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.57421875" widthPt="34.5" style="0" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" widthPt="30" style="0" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.57421875" widthPt="71.25" style="0" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.57421875" widthPt="60.75" style="0" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75">
@@ -603,61 +773,35 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F2">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="12.75">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3">
-        <v>2000</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1000</v>
-      </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultColWidthPt="48.75" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.28125" defaultColWidthPt="48.75" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.8515625" widthPt="46.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28125" widthPt="80.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.8515625" widthPt="46.5" style="0" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28125" widthPt="80.25" style="0" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
@@ -676,31 +820,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultColWidthPt="48.75" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.28125" defaultColWidthPt="48.75" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.28125" widthPt="69.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.421875" widthPt="102" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28125" widthPt="69.75" style="0" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.421875" widthPt="102" style="0" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
@@ -719,40 +855,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="12.75">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultColWidthPt="48.75" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.28125" defaultColWidthPt="48.75" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.28125" widthPt="59.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" widthPt="93" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28125" widthPt="38.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28125" widthPt="59.25" style="0" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" widthPt="93" style="0" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28125" widthPt="38.25" style="0" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12.75">
@@ -777,20 +897,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="12.75">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>